--- a/biology/Zoologie/Chiasmocleis_antenori/Chiasmocleis_antenori.xlsx
+++ b/biology/Zoologie/Chiasmocleis_antenori/Chiasmocleis_antenori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiasmocleis antenori est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiasmocleis antenori est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans l'est de l'Équateur dans les provinces de Pastaza, Orellana et de Napo ;
 dans l'est du Pérou dans les régions de San Martín et de Madre de Dios.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chiasmocleis antenori mesure environ 11 mm pour les mâles et 12 mm pour les femelles (max : 13,2 mm). Son dos est brun foncé tacheté de blanc. Son ventre reprend les mêmes couleurs mais avec des taches plus grandes et plus nombreuses.
 </t>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, antenori, fait référence à Antenor Leitão de Carvalho, herpétologiste et ichtyologiste brésilien, dont elle reprend le prénom.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Walker, 1973 : A new Genus and Species of Microhylid Frog form Ecuador. Occasional papers of the Natural History Museum, the University of Kansas, vol. 20, p. 1-10 (texte intégral).</t>
         </is>
